--- a/template_ext.xlsx
+++ b/template_ext.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <r>
       <rPr>
@@ -89,50 +89,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>结冰笔记本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size:210*285mm
-Cover:4P 250g Gloss Art  Paper  C1S 4C+0C   +Grey Board   Debossing   Embossing   Spot UV Gold foil stamped english crasts  
-Inside page:4P 210g Gloss Art  Paper  C1S 4C+0C   sleeve 
-Tab:4P 0g  4C+0C  
-</t>
-  </si>
-  <si>
-    <t>1043</t>
-  </si>
-  <si>
-    <t>US$2.86</t>
-  </si>
-  <si>
-    <t>US$2860.00</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>Ship cost</t>
   </si>
   <si>
-    <t>transport</t>
-  </si>
-  <si>
-    <t>US$1111.00</t>
-  </si>
-  <si>
-    <t>US$:3.00</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>Extra cost</t>
-  </si>
-  <si>
-    <t>ext</t>
-  </si>
-  <si>
-    <t>TOTAL:US$:3085.00</t>
   </si>
   <si>
     <t xml:space="preserve">Terms and Conditions: 
@@ -1001,7 +967,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1065,70 +1031,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="121.5" spans="1:6">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -1137,7 +1079,7 @@
     </row>
     <row r="9" ht="351" customHeight="1" spans="1:6">
       <c r="A9" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
